--- a/Config/TX_Hyper_Excel.xlsx
+++ b/Config/TX_Hyper_Excel.xlsx
@@ -72,19 +72,19 @@
     <x:t>Android_Scenario</x:t>
   </x:si>
   <x:si>
-    <x:t>Test execution for Desktop_Scenario started 03/31/2023 14:59:24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for OpenCartAddToCart_Scenario started 03/31/2023 14:59:48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for JsonAPI_FailAndPass_Scenario started 03/31/2023 15:00:11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for SAP_Application_Scenario started 03/31/2023 15:00:26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Test execution for Android_Scenario started 03/31/2023 15:01:13</x:t>
+    <x:t>Test execution for Desktop_Scenario started 04/13/2023 14:15:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test execution for OpenCartAddToCart_Scenario started 04/13/2023 14:16:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test execution for JsonAPI_FailAndPass_Scenario started 04/13/2023 14:17:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test execution for SAP_Application_Scenario started 04/13/2023 14:18:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test execution for Android_Scenario started 04/13/2023 14:20:13</x:t>
   </x:si>
   <x:si>
     <x:t>Username</x:t>
